--- a/docs/PST1/PST1_24.07.24_output.xlsx
+++ b/docs/PST1/PST1_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1676 +505,2051 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730742888.4251728</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730742891.7273781</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742888.4251728.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742891.7273781.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.42</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.49</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730742891.7413414</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730742897.4048512</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742891.7413414.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742897.4048512.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>295.49</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>296.26</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7699999999999818</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730742900.540694</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730742904.5823367</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742900.540694.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742904.5823367.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>136.02</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>136.65</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.6299999999999955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730742906.203022</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730742908.7195675</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742906.203022.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742908.7195675.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.69</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>136.88</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730742910.2572544</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730742919.5677352</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742910.2572544.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742919.5677352.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6962</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6985.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>23.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730742919.582668</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1730742919.582668.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1730742919.582668.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6985.5</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>6972</v>
+      </c>
+      <c r="M8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730742920.8995223</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730742922.8889005</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742920.8995223.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742922.8889005.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>533.7</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>534.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730742922.9038615</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730742925.5248637</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742922.9038615.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742925.5248637.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>534.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>536.6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730742928.2247188</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1730742928.2247188.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1730742928.2247188.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>535.35</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>537</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.649999999999977</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730742932.605998</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730742936.6526227</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742932.605998.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742936.6526227.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1102</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1095.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>6.200000000000045</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730742936.6685526</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730742941.8754342</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742936.6685526.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742941.8754342.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1095.8</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1087.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-8.599999999999909</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730742946.7711139</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730742951.549639</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742946.7711139.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742951.549639.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>129.68</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>131.04</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1.359999999999985</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730742951.5645988</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730742951.5645988.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730742951.5645988.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>131.04</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>131.44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730742955.8889816</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730742962.4200432</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742955.8889816.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742962.4200432.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>168.7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>172.06</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-3.360000000000014</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-1.99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730742962.4353628</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730742962.9710977</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742962.4353628.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742962.9710977.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>172.06</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>172.78</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730742964.1827855</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730742964.4686763</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742964.1827855.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742964.4686763.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>172.48</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>171.76</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.7199999999999989</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730742964.5641334</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1730742964.5641334.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1730742964.5641334.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>172.06</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730742969.894982</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730742971.9175923</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742969.894982.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742971.9175923.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>53.32</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>53.73</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730742971.9331276</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1730742971.9331276.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1730742971.9331276.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>53.73</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>53.535</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1950000000000003</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730742976.2270708</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730742977.0951746</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742976.2270708.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742977.0951746.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1457.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1461.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4.399999999999864</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730742992.4916618</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730742993.303861</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742992.4916618.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742993.303861.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>64.14</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>63.89</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730742993.3188193</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730742994.3019662</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742993.3188193.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742994.3019662.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>63.89</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>64.25</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730742995.4736516</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730742996.6948605</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742995.4736516.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742996.6948605.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>64.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>64.16</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730742996.830409</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730742998.1350334</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742996.830409.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742998.1350334.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>64.15000000000001</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>63.98</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.1700000000000088</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730742998.190393</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730742998.190393.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730742998.190393.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>63.98</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.02999999999999403</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730743014.211081</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730743019.2001758</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730743014.211081.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730743019.2001758.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>145.38</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>145.86</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4800000000000182</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730743019.216017</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730743019.216017.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730743019.216017.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>145.86</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.2399999999999807</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730743021.7638848</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730743026.1506913</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730743021.7638848.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730743026.1506913.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>90.14</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>89.34</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.7999999999999972</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730743030.5060062</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730743031.1005034</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730743030.5060062.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730743031.1005034.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>360.78</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>360.07</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.7099999999999795</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730743031.9348586</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1730743031.9348586.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1730743031.9348586.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>361.75</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-8.490000000000009</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-2.35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730743043.8264847</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730743045.5210216</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/FEES1730743043.8264847.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/FEES1730743045.5210216.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>0.10036</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.1004</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>3.999999999999837e-05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730743048.050043</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730743050.9688416</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/FEES1730743048.050043.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/FEES1730743050.9688416.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>0.10026</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.10042</v>
       </c>
-      <c r="K34" t="n">
-        <v>0.0001600000000000074</v>
+      <c r="M34" t="n">
+        <v>0.0001599999999999935</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730743051.896177</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1730743051.896177.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/FEES1730743051.896177.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>0.10034</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0.10026</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-7.999999999999674e-05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730743057.126145</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730743058.8097036</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MXI1730743057.126145.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MXI1730743058.8097036.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>3116.3</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>3124.55</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>8.25</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730743062.780854</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730743062.780854.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730743062.780854.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>3130</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.949999999999818</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730743073.3623912</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730743073.3623912.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730743073.3623912.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>38.03</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>37.995</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.09</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2172,7 +2562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,6 +2586,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2204,10 +2609,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3999999999999844</v>
+        <v>0.3699999999999903</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07399999999999807</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -2217,192 +2631,327 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.360000000000014</v>
+        <v>-3.680000000000007</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.9200000000000017</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6999999999999886</v>
+        <v>0.0001199999999999951</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.999999999999837e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002000000000000057</v>
+        <v>3.549999999999955</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.183333333333318</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8199999999999932</v>
+        <v>0.6049999999999969</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.3024999999999984</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.899999999999977</v>
+        <v>0.6999999999999886</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.3499999999999943</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.399999999999864</v>
+        <v>-7.78000000000003</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="n">
+        <v>-3.890000000000015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0.2400000000000375</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1200000000000188</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4800000000000182</v>
+        <v>0.8199999999999932</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4099999999999966</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4099999999999966</v>
+        <v>-0.9599999999999795</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.4799999999999898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.25</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.5</v>
+        <v>11.19999999999982</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.599999999999909</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.359999999999985</v>
+        <v>-2.399999999999864</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.199999999999932</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.399999999999864</v>
+        <v>-0.7999999999999972</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.7999999999999972</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7099999999999795</v>
+        <v>0.03500000000000369</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.399999999999864</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.399999999999864</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
@@ -2417,6 +2966,11 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
